--- a/CS665_-_group_30_database.xlsx
+++ b/CS665_-_group_30_database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chance Greenhoff\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\potat\Desktop\CS665-DatabaseFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E89906B-A596-4562-9F43-2B2A69FF3798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399A95D-3161-43E0-BC75-D9D655DA58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="20484" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="copy" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>Games</t>
   </si>
@@ -179,12 +179,6 @@
     <t>IDs: Primaries</t>
   </si>
   <si>
-    <t>nolan</t>
-  </si>
-  <si>
-    <t>cgreen</t>
-  </si>
-  <si>
     <t xml:space="preserve">insert </t>
   </si>
   <si>
@@ -219,6 +213,21 @@
   </si>
   <si>
     <t>FK customer -&gt; cust_id</t>
+  </si>
+  <si>
+    <t>Nolan Donohue</t>
+  </si>
+  <si>
+    <t>Chance Greenhoff</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>joins</t>
+  </si>
+  <si>
+    <t>FK management</t>
   </si>
 </sst>
 </file>
@@ -491,12 +500,17 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -536,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
@@ -548,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>16</v>
@@ -563,7 +577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -616,7 +630,7 @@
         <v>46892</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -663,13 +677,13 @@
         <v>44928</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S4" s="1">
         <v>20546</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -722,7 +736,7 @@
         <v>20547</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K6" s="1" t="s">
         <v>46</v>
       </c>
@@ -740,49 +754,73 @@
         <v>44933</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S6" s="1">
         <v>1348</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
+    <row r="17" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -798,14 +836,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -819,7 +857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -833,7 +871,7 @@
         <v>48773625</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -847,7 +885,7 @@
         <v>78302971</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -874,14 +912,14 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -895,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -909,7 +947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -923,7 +961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -950,17 +988,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -974,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -988,7 +1026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1002,7 +1040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1016,7 +1054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1043,14 +1081,14 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +1102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +1116,7 @@
         <v>46892</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1130,7 @@
         <v>20546</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1106,7 +1144,7 @@
         <v>20547</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
